--- a/time_example.xlsx
+++ b/time_example.xlsx
@@ -17,13 +17,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial Narrow"/>
+      <sz val="10.5"/>
     </font>
     <font>
       <name val="Arial Narrow"/>
@@ -51,9 +55,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,25 +438,45 @@
   <sheetData>
     <row r="1"/>
     <row r="2">
-      <c r="B2" s="1" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>task name</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>task time</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>model salonu</t>
+          <t>model</t>
         </is>
       </c>
-      <c r="C3" t="n">
-        <v>1</v>
+      <c r="C3" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>kitchen</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>bathroom</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/time_example.xlsx
+++ b/time_example.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0,00"/>
+  </numFmts>
   <fonts count="3">
     <font>
       <name val="Calibri"/>
@@ -55,10 +57,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -424,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,8 +469,8 @@
           <t>kitchen</t>
         </is>
       </c>
-      <c r="C4" s="1" t="n">
-        <v>9</v>
+      <c r="C4" s="4" t="n">
+        <v>12.00111111111111</v>
       </c>
     </row>
     <row r="5">
@@ -477,6 +481,36 @@
       </c>
       <c r="C5" s="1" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>nowe</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>list_existing_tasks</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="n">
+        <v>0.0002777777777777778</v>
       </c>
     </row>
   </sheetData>

--- a/time_example.xlsx
+++ b/time_example.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,7 +470,7 @@
         </is>
       </c>
       <c r="C4" s="4" t="n">
-        <v>12.00111111111111</v>
+        <v>13.00138888888889</v>
       </c>
     </row>
     <row r="5">
@@ -511,6 +511,32 @@
       </c>
       <c r="C8" s="4" t="n">
         <v>0.0002777777777777778</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>new test task</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="1" t="inlineStr"/>
+      <c r="C10" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>second test task</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="n">
+        <v>0.02416666666666666</v>
       </c>
     </row>
   </sheetData>

--- a/time_example.xlsx
+++ b/time_example.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,6 +539,16 @@
         <v>0.02416666666666666</v>
       </c>
     </row>
+    <row r="12">
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t>another test task</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="n">
+        <v>0.003611111111111111</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/time_example.xlsx
+++ b/time_example.xlsx
@@ -2,23 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0,00"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <name val="Calibri"/>
@@ -57,15 +54,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -428,10 +424,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -469,7 +465,7 @@
           <t>kitchen</t>
         </is>
       </c>
-      <c r="C4" s="4" t="n">
+      <c r="C4" s="3" t="n">
         <v>13.00138888888889</v>
       </c>
     </row>
@@ -486,67 +482,76 @@
     <row r="6">
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>nowe</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>0.1666666666666667</v>
+          <t>list_existing_tasks</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>list_existing_tasks</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>0.09</v>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>0.0002777777777777778</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>0.0002777777777777778</v>
+          <t>new test task</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="1" t="inlineStr">
-        <is>
-          <t>new test task</t>
-        </is>
-      </c>
-      <c r="C9" s="4" t="n">
+      <c r="C9" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="1" t="inlineStr"/>
-      <c r="C10" s="4" t="n">
-        <v>1</v>
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>second test task</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="n">
+        <v>0.02416666666666666</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>second test task</t>
-        </is>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>0.02416666666666666</v>
+          <t>another test task</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="n">
+        <v>0.003611111111111111</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>another test task</t>
-        </is>
-      </c>
-      <c r="C12" s="4" t="n">
-        <v>0.003611111111111111</v>
+          <t>just another one</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="n">
+        <v>0.003055555555555556</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="1" t="inlineStr">
+        <is>
+          <t>the final test task</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="n">
+        <v>0.075</v>
       </c>
     </row>
   </sheetData>
